--- a/Data/Latergas.xlsx
+++ b/Data/Latergas.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Regionshuset\Grøn omstilling\Personlige mapper\Thea\Rod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598168EF-5FF0-42BC-AECC-8E1EC91ACB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28080" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lattergas" sheetId="6" r:id="rId1"/>
     <sheet name="Anæstesigasser" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Bagrundsdata" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -226,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -617,7 +630,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -631,23 +644,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,19 +684,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,8 +724,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -921,7 +924,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9AEC08D5-C9DF-42E7-9C7D-0550C4E46788}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -934,7 +939,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Thea Skafte Böttcher" refreshedDate="45468.379280092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thea Skafte Böttcher" refreshedDate="45468.379280092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabel4"/>
   </cacheSource>
@@ -1608,7 +1613,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivottabel2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Pivottabel2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K4:O9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1722,27 +1727,30 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A1:H63" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:H63"/>
-  <sortState ref="A2:H63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel4" displayName="Tabel4" ref="A1:H63" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:H63" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H63">
     <sortCondition ref="C1:C63"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="6" name="Årstal"/>
-    <tableColumn id="7" name="Enhed"/>
-    <tableColumn id="1" name="Sygehus"/>
-    <tableColumn id="8" name="Kolonne1"/>
-    <tableColumn id="2" name="Varenr" dataDxfId="12"/>
-    <tableColumn id="3" name="Antal" dataDxfId="11"/>
-    <tableColumn id="4" name="Kg" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Årstal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Enhed"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sygehus"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Kolonne1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Varenr" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Antal" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kg" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kg CO2e" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kg CO2e" dataDxfId="9">
       <calculatedColumnFormula>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1751,26 +1759,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A2:E16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel2" displayName="Tabel2" ref="A2:E16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Kolonne1" dataDxfId="4"/>
-    <tableColumn id="2" name="Omregning" dataDxfId="3"/>
-    <tableColumn id="3" name="enhed" dataDxfId="2"/>
-    <tableColumn id="4" name="kg CO2-eg/kg" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="5" name="Kilde " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kolonne1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Omregning" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="enhed" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="kg CO2-eg/kg" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Kilde " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A21:C25" totalsRowShown="0">
-  <autoFilter ref="A21:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel5" displayName="Tabel5" ref="A21:C25" totalsRowShown="0">
+  <autoFilter ref="A21:C25" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Lattergas"/>
-    <tableColumn id="2" name="kg/enhed"/>
-    <tableColumn id="3" name="L/enhed"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Lattergas"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="kg/enhed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="L/enhed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2038,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -2066,7 +2074,7 @@
       <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
@@ -2101,25 +2109,20 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2">
         <v>48</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>1776</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>529248</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2134,17 +2137,17 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3">
         <v>27</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>49.95</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>8618.4729000000007</v>
       </c>
@@ -2162,24 +2165,24 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>7022.4593999999997</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2196,21 +2199,21 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>42.550000000000004</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>7341.6620999999996</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="L5">
@@ -2239,36 +2242,36 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6">
         <v>24</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>44.400000000000006</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>7660.8648000000012</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="43">
         <v>1643020.0944999999</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="43">
         <v>1826312.4593999998</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="43">
         <v>2224734.7641999996</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="43">
         <v>2122506.1025999999</v>
       </c>
-      <c r="P6" s="47"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2283,37 +2286,37 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>91.76</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>27344.480000000003</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="43">
         <v>3830.4324000000006</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="43">
         <v>1915.2162000000003</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="43">
         <v>3830.4324000000006</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="43">
         <v>2872.8242999999998</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2328,36 +2331,36 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="50">
-        <v>0</v>
-      </c>
-      <c r="G8" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="50">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="43">
         <v>571507.35019999999</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="43">
         <v>552055.28099999996</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="43">
         <v>553181.03559999994</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="43">
         <v>618211.28099999996</v>
       </c>
-      <c r="P8" s="47"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2372,37 +2375,37 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9">
         <v>46</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>1702</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>507196</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="43">
         <v>163301.67559999999</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="43">
         <v>178650.41889999999</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="43">
         <v>202936.83780000001</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="43">
         <v>252786.48639999999</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2417,22 +2420,22 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>14.8</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>4410.4000000000005</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="N10" s="43"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2447,23 +2450,23 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>59.2</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>17641.600000000002</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
+      <c r="N11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2478,22 +2481,22 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12">
         <v>45</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>1665</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>496170</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="P12" s="47"/>
+      <c r="N12" s="43"/>
+      <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2508,22 +2511,22 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>44.4</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>13231.199999999999</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="P13" s="47"/>
+      <c r="N13" s="43"/>
+      <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2538,22 +2541,22 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="47">
         <v>44</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>1628</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>485144</v>
       </c>
-      <c r="N14" s="47"/>
-      <c r="P14" s="47"/>
+      <c r="N14" s="43"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2568,22 +2571,22 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="47">
         <v>17</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>50.32</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>14995.36</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="P15" s="47"/>
+      <c r="N15" s="43"/>
+      <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2598,22 +2601,22 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16">
         <v>180</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>6660</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1984680</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="P16" s="47"/>
+      <c r="N16" s="43"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2628,21 +2631,21 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17">
         <v>33</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>61.050000000000004</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>10533.6891</v>
       </c>
-      <c r="N17" s="47"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2657,21 +2660,21 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18">
         <v>35</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>64.75</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>11172.094499999999</v>
       </c>
-      <c r="N18" s="47"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2686,21 +2689,21 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>29.6</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>5107.2431999999999</v>
       </c>
-      <c r="N19" s="47"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2715,21 +2718,21 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20">
         <v>32</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>59.2</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>10214.4864</v>
       </c>
-      <c r="N20" s="47"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2744,17 +2747,17 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21">
         <v>6</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>17.759999999999998</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>5292.48</v>
       </c>
@@ -2772,22 +2775,22 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="50">
-        <v>0</v>
-      </c>
-      <c r="G22" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="50">
-        <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2802,22 +2805,22 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23">
         <v>140</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>5180</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1543640</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2832,21 +2835,21 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24">
         <v>156</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>5772</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1720056</v>
       </c>
-      <c r="N24" s="47"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2861,21 +2864,21 @@
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="47">
         <v>191</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>7067</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>2105966</v>
       </c>
-      <c r="N25" s="47"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2890,21 +2893,21 @@
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="47">
         <v>2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>14.8</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>4410.4000000000005</v>
       </c>
-      <c r="N26" s="47"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2919,21 +2922,21 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="47">
         <v>6</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>17.759999999999998</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>5292.48</v>
       </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2948,21 +2951,21 @@
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28">
         <v>9</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>333</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>99234</v>
       </c>
-      <c r="N28" s="47"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2977,21 +2980,21 @@
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>9.25</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1596.0134999999998</v>
       </c>
-      <c r="N29" s="47"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3000,27 +3003,27 @@
       <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="50">
-        <v>0</v>
-      </c>
-      <c r="G30" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="50">
-        <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="47"/>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3035,21 +3038,21 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1915.2162000000003</v>
       </c>
-      <c r="N31" s="47"/>
+      <c r="N31" s="43"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3064,21 +3067,21 @@
       <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32">
         <v>14</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>25.900000000000002</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>4468.8378000000002</v>
       </c>
-      <c r="N32" s="47"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3093,21 +3096,21 @@
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33">
         <v>24</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>71.039999999999992</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>21169.919999999998</v>
       </c>
-      <c r="N33" s="47"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3122,21 +3125,21 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34">
         <v>8</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>296</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>88208</v>
       </c>
-      <c r="N34" s="47"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3151,21 +3154,21 @@
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35">
         <v>9</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>333</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>99234</v>
       </c>
-      <c r="N35" s="47"/>
+      <c r="N35" s="43"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3180,21 +3183,21 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="47">
         <v>8</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>296</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>88208</v>
       </c>
-      <c r="N36" s="47"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3209,21 +3212,21 @@
       <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="47">
         <v>7</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>20.72</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>6174.5599999999995</v>
       </c>
-      <c r="N37" s="47"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3238,17 +3241,17 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38">
         <v>32</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>59.2</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>10214.4864</v>
       </c>
@@ -3266,17 +3269,17 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39">
         <v>28</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>51.800000000000004</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>8937.6756000000005</v>
       </c>
@@ -3294,17 +3297,17 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40">
         <v>7</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>12.950000000000001</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>2234.4189000000001</v>
       </c>
@@ -3322,17 +3325,17 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41">
         <v>14</v>
       </c>
-      <c r="G41" s="50">
+      <c r="G41">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>25.900000000000002</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>4468.8378000000002</v>
       </c>
@@ -3350,17 +3353,17 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42">
         <v>14</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>518</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>154364</v>
       </c>
@@ -3378,17 +3381,17 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43">
         <v>16</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>592</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>176416</v>
       </c>
@@ -3406,17 +3409,17 @@
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="47">
         <v>18</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>666</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>198468</v>
       </c>
@@ -3434,17 +3437,17 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45">
         <v>22</v>
       </c>
-      <c r="G45" s="53">
+      <c r="G45">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>814</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H45">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>242572</v>
       </c>
@@ -3462,17 +3465,17 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46">
         <v>9</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>16.650000000000002</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>2872.8242999999998</v>
       </c>
@@ -3490,17 +3493,17 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47">
         <v>12</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>22.200000000000003</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>3830.4324000000006</v>
       </c>
@@ -3518,17 +3521,17 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="50">
-        <v>0</v>
-      </c>
-      <c r="G48" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="50">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>0</v>
       </c>
@@ -3546,17 +3549,17 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49">
         <v>6</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1915.2162000000003</v>
       </c>
@@ -3574,17 +3577,17 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50">
         <v>12</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G50">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>22.200000000000003</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>3830.4324000000006</v>
       </c>
@@ -3602,17 +3605,17 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="50">
-        <v>0</v>
-      </c>
-      <c r="G51" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="50">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>0</v>
       </c>
@@ -3630,17 +3633,17 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="50">
-        <v>0</v>
-      </c>
-      <c r="G52" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="50">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>0</v>
       </c>
@@ -3658,17 +3661,17 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53">
         <v>4</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>148</v>
       </c>
-      <c r="H53" s="50">
+      <c r="H53">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>44104</v>
       </c>
@@ -3686,17 +3689,17 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54">
         <v>3</v>
       </c>
-      <c r="G54" s="50">
+      <c r="G54">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>5.5500000000000007</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>957.60810000000015</v>
       </c>
@@ -3708,23 +3711,23 @@
       <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55">
         <v>4</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>7.4</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H55">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1276.8108</v>
       </c>
@@ -3742,17 +3745,17 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56">
         <v>7</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>12.950000000000001</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>2234.4189000000001</v>
       </c>
@@ -3770,17 +3773,17 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57">
         <v>4</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>7.4</v>
       </c>
-      <c r="H57" s="50">
+      <c r="H57">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>1276.8108</v>
       </c>
@@ -3798,17 +3801,17 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="50">
+      <c r="F58">
         <v>9</v>
       </c>
-      <c r="G58" s="50">
+      <c r="G58">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>26.64</v>
       </c>
-      <c r="H58" s="50">
+      <c r="H58">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>7938.72</v>
       </c>
@@ -3826,17 +3829,17 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="50">
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="G59" s="50">
+      <c r="G59">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>111</v>
       </c>
-      <c r="H59" s="50">
+      <c r="H59">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>33078</v>
       </c>
@@ -3854,17 +3857,17 @@
       <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>2.96</v>
       </c>
-      <c r="H60" s="50">
+      <c r="H60">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>882.08</v>
       </c>
@@ -3882,17 +3885,17 @@
       <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="50">
+      <c r="F61">
         <v>3</v>
       </c>
-      <c r="G61" s="50">
+      <c r="G61">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>111</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H61">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>33078</v>
       </c>
@@ -3910,17 +3913,17 @@
       <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="47">
         <v>4</v>
       </c>
-      <c r="G62" s="50">
+      <c r="G62">
         <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
         <v>148</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H62">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>44104</v>
       </c>
@@ -3938,17 +3941,17 @@
       <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="50">
-        <v>0</v>
-      </c>
-      <c r="G63" s="50">
-        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="50">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>VLOOKUP(Tabel4[[#This Row],[Varenr]],Tabel5[],2,FALSE)*Tabel4[[#This Row],[Antal]]</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
         <f>IF(Tabel4[[#This Row],[Varenr]]="51051050M3Q2",Tabel4[[#This Row],[Kg]]*0.579*Bagrundsdata!$D$6,Tabel4[[#This Row],[Kg]]*Bagrundsdata!$D$6)</f>
         <v>0</v>
       </c>
@@ -3962,8 +3965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -3985,92 +3988,75 @@
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="54">
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="48">
         <v>2020</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="L2" s="39"/>
       <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="N4" t="s">
@@ -4086,542 +4072,542 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
         <f>B5*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <f>C5*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <f>105*6*240</f>
         <v>151200</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="23">
         <f>E5*Bagrundsdata!$B$4/1000</f>
         <v>221.50800000000001</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <f>F5*Bagrundsdata!$D$4</f>
         <v>562630.32000000007</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <f>250*6*250</f>
         <v>375000</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="32">
         <f>H5*Bagrundsdata!$B$5/1000</f>
         <v>570.75</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="33">
         <f>I5*Bagrundsdata!$D$5</f>
         <v>74197.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="39">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
         <f>B6*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <f>C6*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="37">
         <v>79200</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <f>E6*Bagrundsdata!$B$4/1000</f>
         <v>116.02800000000001</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="23">
         <f>F6*Bagrundsdata!$D$4</f>
         <v>294711.12</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="37">
         <v>84000</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="32">
         <f>H6*Bagrundsdata!$B$5/1000</f>
         <v>127.848</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="33">
         <f>I6*Bagrundsdata!$D$5</f>
         <v>16620.240000000002</v>
       </c>
       <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="44">
         <f>G11</f>
         <v>884133.3600000001</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="44">
         <f>G21</f>
         <v>718023.45600000001</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="44">
         <f>G31</f>
         <v>664439.61600000004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
         <f>B7*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <f>C7*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E7" s="42">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
         <f>E7*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="23">
         <f>F7*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <f>53*6*250</f>
         <v>79500</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="32">
         <f>H7*Bagrundsdata!$B$5/1000</f>
         <v>120.999</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="33">
         <f>I7*Bagrundsdata!$D$5</f>
         <v>15729.869999999999</v>
       </c>
       <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="44">
         <f>J11</f>
         <v>114560.94</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="44">
         <f>J21</f>
         <v>101205.39000000001</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="44">
         <f>J31</f>
         <v>97050.33</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="39">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
         <f>B8*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <f>C8*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <f>5*6*240</f>
         <v>7200</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <f>E8*Bagrundsdata!$B$4/1000</f>
         <v>10.548</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <f>F8*Bagrundsdata!$D$4</f>
         <v>26791.920000000002</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <f>27*6*250</f>
         <v>40500</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="32">
         <f>H8*Bagrundsdata!$B$5/1000</f>
         <v>61.640999999999998</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="33">
         <f>I8*Bagrundsdata!$D$5</f>
         <v>8013.33</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="44">
         <f>SUM(O6:O7)</f>
         <v>998694.3</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="44">
         <f t="shared" ref="P8:Q8" si="0">SUM(P6:P7)</f>
         <v>819228.84600000002</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="44">
         <f t="shared" si="0"/>
         <v>761489.946</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="39">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="B9" s="35">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
         <f>B9*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <f>C9*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E9" s="42">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
         <f>E9*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="23">
         <f>F9*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36">
+      <c r="H9" s="36"/>
+      <c r="I9" s="32">
         <f>H9*Bagrundsdata!$B$5/1000</f>
         <v>0</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>I9*Bagrundsdata!$D$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
         <f t="shared" ref="D11:J11" si="1">SUM(D5:D9)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>237600</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="30">
         <f t="shared" si="1"/>
         <v>348.084</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>884133.3600000001</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>579000</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="30">
         <f t="shared" si="1"/>
         <v>881.23799999999994</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="31">
         <f t="shared" si="1"/>
         <v>114560.94</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="54">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="48">
         <v>2021</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="57" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="39">
-        <v>0</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
         <f>B15*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="23">
         <f>C15*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="36">
         <f>95*6*240</f>
         <v>136800</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="23">
         <f>E15*Bagrundsdata!$B$4/1000</f>
         <v>200.41200000000001</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="23">
         <f>F15*Bagrundsdata!$D$4</f>
         <v>509046.48000000004</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <f>208*6*250</f>
         <v>312000</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="23">
         <f>H15*Bagrundsdata!$B$5/1000</f>
         <v>474.86399999999998</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <f>I15*Bagrundsdata!$D$5</f>
         <v>61732.32</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="39">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="35">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
         <f>B16*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="23">
         <f>C16*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <f>33*6*240</f>
         <v>47520</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="23">
         <f>E16*Bagrundsdata!$B$4/1000</f>
         <v>69.616799999999998</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="23">
         <f>F16*Bagrundsdata!$D$4</f>
         <v>176826.67199999999</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <f>61*6*250</f>
         <v>91500</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="23">
         <f>H16*Bagrundsdata!$B$5/1000</f>
         <v>139.26300000000001</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="24">
         <f>I16*Bagrundsdata!$D$5</f>
         <v>18104.190000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="39">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="35">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
         <f>B17*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="23">
         <f>C17*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
         <f>E17*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="23">
         <f>F17*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <f>51*6*250</f>
         <v>76500</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="23">
         <f>H17*Bagrundsdata!$B$5/1000</f>
         <v>116.43300000000001</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <f>I17*Bagrundsdata!$D$5</f>
         <v>15136.29</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="39">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="35">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
         <f>B18*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="23">
         <f>C18*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <f>6*6*240</f>
         <v>8640</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="23">
         <f>E18*Bagrundsdata!$B$4/1000</f>
         <v>12.6576</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="23">
         <f>F18*Bagrundsdata!$D$4</f>
         <v>32150.304</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <f>21*6*250</f>
         <v>31500</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="23">
         <f>H18*Bagrundsdata!$B$5/1000</f>
         <v>47.942999999999998</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="24">
         <f>I18*Bagrundsdata!$D$5</f>
         <v>6232.59</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="39">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="35">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
         <f>B19*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="23">
         <f>C19*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="36">
         <f>0*6*240</f>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="23">
         <f>E19*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="23">
         <f>F19*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="27">
+      <c r="H19" s="36"/>
+      <c r="I19" s="23">
         <f>H19*Bagrundsdata!$B$5/1000</f>
         <v>0</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="24">
         <f>I19*Bagrundsdata!$D$5</f>
         <v>0</v>
       </c>
@@ -4630,380 +4616,375 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="30">
         <f>SUM(B15:B19)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="30">
         <f t="shared" ref="C21:J21" si="2">SUM(C15:C19)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="30">
         <f t="shared" si="2"/>
         <v>192960</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="30">
         <f t="shared" si="2"/>
         <v>282.68639999999999</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <f t="shared" si="2"/>
         <v>718023.45600000001</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="30">
         <f t="shared" si="2"/>
         <v>511500</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>778.50299999999993</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="31">
         <f t="shared" si="2"/>
         <v>101205.39000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="54">
+      <c r="A22" s="16"/>
+      <c r="B22" s="48">
         <v>2022</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="39">
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="35">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
         <f>B25*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="23">
         <f>C25*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="36">
         <f>90*6*240</f>
         <v>129600</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="23">
         <f>E25*Bagrundsdata!$B$4/1000</f>
         <v>189.864</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="23">
         <f>F25*Bagrundsdata!$D$4</f>
         <v>482254.56</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="36">
         <f>171*6*250</f>
         <v>256500</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="23">
         <f>H25*Bagrundsdata!$B$5/1000</f>
         <v>390.39299999999997</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="24">
         <f>I25*Bagrundsdata!$D$5</f>
         <v>50751.09</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="39">
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
         <f>B26*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="23">
         <f>C26*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <f>28*6*240</f>
         <v>40320</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="23">
         <f>E26*Bagrundsdata!$B$4/1000</f>
         <v>59.068800000000003</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="23">
         <f>F26*Bagrundsdata!$D$4</f>
         <v>150034.75200000001</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="36">
         <f>79*6*250</f>
         <v>118500</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="23">
         <f>H26*Bagrundsdata!$B$5/1000</f>
         <v>180.357</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="24">
         <f>I26*Bagrundsdata!$D$5</f>
         <v>23446.41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="39">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="35">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
         <f>B27*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="23">
         <f>C27*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E27" s="40">
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
         <f>E27*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="23">
         <f>F27*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="36">
         <f>58*6*250</f>
         <v>87000</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="23">
         <f>H27*Bagrundsdata!$B$5/1000</f>
         <v>132.41399999999999</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="24">
         <f>I27*Bagrundsdata!$D$5</f>
         <v>17213.82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="39">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="B28" s="35">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
         <f>B28*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="23">
         <f>C28*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="36">
         <f>6*6*240</f>
         <v>8640</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="23">
         <f>E28*Bagrundsdata!$B$4/1000</f>
         <v>12.6576</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="23">
         <f>F28*Bagrundsdata!$D$4</f>
         <v>32150.304</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="36">
         <f>19*6*250</f>
         <v>28500</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="23">
         <f>H28*Bagrundsdata!$B$5/1000</f>
         <v>43.377000000000002</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="24">
         <f>I28*Bagrundsdata!$D$5</f>
         <v>5639.01</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="39">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
+      <c r="B29" s="35">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
         <f>B29*Bagrundsdata!$B$3/1000</f>
         <v>0</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="23">
         <f>C29*Bagrundsdata!$D$3</f>
         <v>0</v>
       </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="27">
+      <c r="E29" s="36">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
         <f>E29*Bagrundsdata!$B$4/1000</f>
         <v>0</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="23">
         <f>F29*Bagrundsdata!$D$4</f>
         <v>0</v>
       </c>
-      <c r="H29" s="40">
-        <v>0</v>
-      </c>
-      <c r="I29" s="27">
+      <c r="H29" s="36">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
         <f>H29*Bagrundsdata!$B$5/1000</f>
         <v>0</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="24">
         <f>I29*Bagrundsdata!$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="30">
         <f t="shared" ref="B31:J31" si="3">SUM(B25:B29)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="30">
         <f t="shared" si="3"/>
         <v>178560</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="30">
         <f t="shared" si="3"/>
         <v>261.59039999999999</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="30">
         <f t="shared" si="3"/>
         <v>664439.61600000004</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="30">
         <f>SUM(H25:H29)</f>
         <v>490500</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="30">
         <f>SUM(I25:I29)</f>
         <v>746.54099999999994</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="31">
         <f t="shared" si="3"/>
         <v>97050.33</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H32" s="48"/>
+      <c r="H32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
@@ -5011,6 +4992,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5018,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,12 +5021,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5111,7 +5097,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
@@ -5124,7 +5110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
@@ -5132,12 +5118,12 @@
       <c r="D7" s="2">
         <v>675</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
@@ -5145,12 +5131,12 @@
       <c r="D8" s="2">
         <v>1430</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
@@ -5158,12 +5144,12 @@
       <c r="D9" s="2">
         <v>3921.6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
@@ -5171,7 +5157,7 @@
       <c r="D10" s="2">
         <v>2087.5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5184,66 +5170,66 @@
       <c r="D11" s="3">
         <v>1773.85</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13">
         <v>1397</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="42" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5290,7 +5276,7 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5308,7 +5294,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
